--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DEV\excel\Powershell-Excel-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06D8AD-4408-42F8-A492-C989E2F3D685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6BC54-FE95-4A03-897E-79BD4830A510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13395" yWindow="2865" windowWidth="22860" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>YOYO</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7">
